--- a/Finflux Automation Excels/Client/4963-BulkJLGLOANon01JAN201-DISBLOAN-2ndClient.xlsx
+++ b/Finflux Automation Excels/Client/4963-BulkJLGLOANon01JAN201-DISBLOAN-2ndClient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ToClient2" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="F3" s="5">
         <v>161.61000000000001</v>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,21 +1168,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
-        <v>42171</v>
+        <v>42157</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>827.22</v>
+        <v>842.84</v>
       </c>
       <c r="G11" s="6">
-        <v>2567.58</v>
+        <v>2551.96</v>
       </c>
       <c r="H11" s="5">
-        <v>31.25</v>
+        <v>15.63</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
         <v>42171</v>
@@ -1221,13 +1221,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>858.47</v>
+        <v>846.72</v>
       </c>
       <c r="G12" s="6">
-        <v>1709.11</v>
+        <v>1705.24</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1266,13 +1266,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>850.6</v>
+        <v>850.62</v>
       </c>
       <c r="G13" s="5">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="H13" s="5">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1311,13 +1311,13 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
